--- a/src/test/resources/com/qa/excel/testdata.xlsx
+++ b/src/test/resources/com/qa/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFirstWorkspace\PageObjectModelBasics\src\test\resources\com\qa\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE28ECE-1492-43F6-8F50-272F35AC63A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1B0A7D-9CF1-45EC-BCCB-07E09DA1A000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36" yWindow="48" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{55D99A32-850A-469C-859A-F8F072C71B4E}"/>
+    <workbookView xWindow="36" yWindow="48" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{55D99A32-850A-469C-859A-F8F072C71B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>TCID</t>
   </si>
@@ -69,6 +69,58 @@
   </si>
   <si>
     <t>runmode</t>
+  </si>
+  <si>
+    <t>accountSite</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">website
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accountNumber
+</t>
+  </si>
+  <si>
+    <t>accountType</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annualRevenue
+</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>parentAccount</t>
+  </si>
+  <si>
+    <t>tickerSymbol</t>
+  </si>
+  <si>
+    <t>ownership</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone
+</t>
+  </si>
+  <si>
+    <t>SICCode</t>
+  </si>
+  <si>
+    <t>Simasite</t>
+  </si>
+  <si>
+    <t>sds33</t>
   </si>
 </sst>
 </file>
@@ -113,9 +165,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -475,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4641FC4C-F194-4AC4-9EE3-D6AFB0DE1F0F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -519,26 +577,79 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DC0B43-1A9B-40F0-B38C-023206A73217}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/com/qa/excel/testdata.xlsx
+++ b/src/test/resources/com/qa/excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyFirstWorkspace\PageObjectModelBasics\src\test\resources\com\qa\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1B0A7D-9CF1-45EC-BCCB-07E09DA1A000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC3FC1B-76D2-42AB-865D-440E6379933F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36" yWindow="48" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{55D99A32-850A-469C-859A-F8F072C71B4E}"/>
   </bookViews>
@@ -580,7 +580,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
